--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2227,28 +2227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2502.295587091557</v>
+        <v>2631.710763169237</v>
       </c>
       <c r="AB2" t="n">
-        <v>3423.751215748985</v>
+        <v>3600.822769053098</v>
       </c>
       <c r="AC2" t="n">
-        <v>3096.993204982784</v>
+        <v>3257.165297761031</v>
       </c>
       <c r="AD2" t="n">
-        <v>2502295.587091557</v>
+        <v>2631710.763169237</v>
       </c>
       <c r="AE2" t="n">
-        <v>3423751.215748985</v>
+        <v>3600822.769053098</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.053723219871459e-06</v>
+        <v>1.51911526852464e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.84166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3096993.204982784</v>
+        <v>3257165.297761031</v>
       </c>
     </row>
     <row r="3">
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>840.4829907074269</v>
+        <v>909.3793408707029</v>
       </c>
       <c r="AB3" t="n">
-        <v>1149.985907378513</v>
+        <v>1244.252933164359</v>
       </c>
       <c r="AC3" t="n">
-        <v>1040.232866393665</v>
+        <v>1125.503179543112</v>
       </c>
       <c r="AD3" t="n">
-        <v>840482.9907074269</v>
+        <v>909379.3408707029</v>
       </c>
       <c r="AE3" t="n">
-        <v>1149985.907378513</v>
+        <v>1244252.933164359</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.981110525523247e-06</v>
+        <v>2.856096545280994e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.34166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1040232.866393665</v>
+        <v>1125503.179543112</v>
       </c>
     </row>
     <row r="4">
@@ -2439,28 +2439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>624.6140133611858</v>
+        <v>676.4143096426377</v>
       </c>
       <c r="AB4" t="n">
-        <v>854.6244491062381</v>
+        <v>925.4998997463064</v>
       </c>
       <c r="AC4" t="n">
-        <v>773.0602911564858</v>
+        <v>837.1714882617857</v>
       </c>
       <c r="AD4" t="n">
-        <v>624614.0133611858</v>
+        <v>676414.3096426377</v>
       </c>
       <c r="AE4" t="n">
-        <v>854624.4491062381</v>
+        <v>925499.8997463064</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.3287531162686e-06</v>
+        <v>3.357280497225368e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.05208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>773060.2911564858</v>
+        <v>837171.4882617857</v>
       </c>
     </row>
     <row r="5">
@@ -2545,28 +2545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>535.2973610583673</v>
+        <v>587.0123164852477</v>
       </c>
       <c r="AB5" t="n">
-        <v>732.4174650529197</v>
+        <v>803.1761485707906</v>
       </c>
       <c r="AC5" t="n">
-        <v>662.5165701426367</v>
+        <v>726.522144215998</v>
       </c>
       <c r="AD5" t="n">
-        <v>535297.3610583673</v>
+        <v>587012.3164852477</v>
       </c>
       <c r="AE5" t="n">
-        <v>732417.4650529197</v>
+        <v>803176.1485707905</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.486745951256942e-06</v>
+        <v>3.585053145129589e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.22083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>662516.5701426368</v>
+        <v>726522.144215998</v>
       </c>
     </row>
     <row r="6">
@@ -2651,28 +2651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>535.9254357548095</v>
+        <v>587.6403911816899</v>
       </c>
       <c r="AB6" t="n">
-        <v>733.2768245612921</v>
+        <v>804.0355080791628</v>
       </c>
       <c r="AC6" t="n">
-        <v>663.2939135856487</v>
+        <v>727.2994876590099</v>
       </c>
       <c r="AD6" t="n">
-        <v>535925.4357548095</v>
+        <v>587640.3911816899</v>
       </c>
       <c r="AE6" t="n">
-        <v>733276.8245612921</v>
+        <v>804035.5080791628</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.490247177517072e-06</v>
+        <v>3.590100738434946e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.20416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>663293.9135856488</v>
+        <v>727299.4876590099</v>
       </c>
     </row>
   </sheetData>
@@ -2948,28 +2948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1498.443450613797</v>
+        <v>1599.367192419262</v>
       </c>
       <c r="AB2" t="n">
-        <v>2050.236435789264</v>
+        <v>2188.324751768752</v>
       </c>
       <c r="AC2" t="n">
-        <v>1854.564747882446</v>
+        <v>1979.47410879302</v>
       </c>
       <c r="AD2" t="n">
-        <v>1498443.450613797</v>
+        <v>1599367.192419262</v>
       </c>
       <c r="AE2" t="n">
-        <v>2050236.435789264</v>
+        <v>2188324.751768752</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.397023850494256e-06</v>
+        <v>2.045190362549208e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.50625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1854564.747882446</v>
+        <v>1979474.10879302</v>
       </c>
     </row>
     <row r="3">
@@ -3054,28 +3054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>633.8423878742651</v>
+        <v>701.011094605146</v>
       </c>
       <c r="AB3" t="n">
-        <v>867.251118242183</v>
+        <v>959.1543060655778</v>
       </c>
       <c r="AC3" t="n">
-        <v>784.4818887117374</v>
+        <v>867.6139652762017</v>
       </c>
       <c r="AD3" t="n">
-        <v>633842.3878742651</v>
+        <v>701011.094605146</v>
       </c>
       <c r="AE3" t="n">
-        <v>867251.118242183</v>
+        <v>959154.3060655778</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.261316341774433e-06</v>
+        <v>3.310482056004898e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.90416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>784481.8887117374</v>
+        <v>867613.9652762017</v>
       </c>
     </row>
     <row r="4">
@@ -3160,28 +3160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>504.9282022808374</v>
+        <v>555.347492264835</v>
       </c>
       <c r="AB4" t="n">
-        <v>690.865042220776</v>
+        <v>759.8509391189692</v>
       </c>
       <c r="AC4" t="n">
-        <v>624.929852226401</v>
+        <v>687.331831946945</v>
       </c>
       <c r="AD4" t="n">
-        <v>504928.2022808373</v>
+        <v>555347.4922648349</v>
       </c>
       <c r="AE4" t="n">
-        <v>690865.042220776</v>
+        <v>759850.9391189693</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.521192659215408e-06</v>
+        <v>3.69093120846355e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.47083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>624929.852226401</v>
+        <v>687331.8319469451</v>
       </c>
     </row>
     <row r="5">
@@ -3266,28 +3266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>505.4269136576914</v>
+        <v>555.846203641689</v>
       </c>
       <c r="AB5" t="n">
-        <v>691.5474011281808</v>
+        <v>760.533298026374</v>
       </c>
       <c r="AC5" t="n">
-        <v>625.5470877573797</v>
+        <v>687.949067477924</v>
       </c>
       <c r="AD5" t="n">
-        <v>505426.9136576914</v>
+        <v>555846.203641689</v>
       </c>
       <c r="AE5" t="n">
-        <v>691547.4011281808</v>
+        <v>760533.2980263741</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.526474698187786e-06</v>
+        <v>3.698663914814335e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.44583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>625547.0877573797</v>
+        <v>687949.0674779241</v>
       </c>
     </row>
   </sheetData>
@@ -3563,28 +3563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>472.4871685401503</v>
+        <v>526.7729383338087</v>
       </c>
       <c r="AB2" t="n">
-        <v>646.4777886593681</v>
+        <v>720.7539738101898</v>
       </c>
       <c r="AC2" t="n">
-        <v>584.7788558469922</v>
+        <v>651.9662261343001</v>
       </c>
       <c r="AD2" t="n">
-        <v>472487.1685401503</v>
+        <v>526772.9383338087</v>
       </c>
       <c r="AE2" t="n">
-        <v>646477.7886593681</v>
+        <v>720753.9738101898</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.47092733839931e-06</v>
+        <v>3.822829586268052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.19791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>584778.8558469922</v>
+        <v>651966.2261343001</v>
       </c>
     </row>
     <row r="3">
@@ -3669,28 +3669,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>469.9440676545747</v>
+        <v>524.229837448233</v>
       </c>
       <c r="AB3" t="n">
-        <v>642.9982058340305</v>
+        <v>717.2743909848522</v>
       </c>
       <c r="AC3" t="n">
-        <v>581.6313595228798</v>
+        <v>648.8187298101877</v>
       </c>
       <c r="AD3" t="n">
-        <v>469944.0676545746</v>
+        <v>524229.837448233</v>
       </c>
       <c r="AE3" t="n">
-        <v>642998.2058340305</v>
+        <v>717274.3909848522</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.487430499250065e-06</v>
+        <v>3.848362013137422e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.10416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>581631.3595228798</v>
+        <v>648818.7298101877</v>
       </c>
     </row>
   </sheetData>
@@ -3966,28 +3966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>708.2778608091737</v>
+        <v>772.3643335571098</v>
       </c>
       <c r="AB2" t="n">
-        <v>969.0970161730274</v>
+        <v>1056.782955482391</v>
       </c>
       <c r="AC2" t="n">
-        <v>876.6077570856778</v>
+        <v>955.9250734153443</v>
       </c>
       <c r="AD2" t="n">
-        <v>708277.8608091737</v>
+        <v>772364.3335571098</v>
       </c>
       <c r="AE2" t="n">
-        <v>969097.0161730275</v>
+        <v>1056782.955482391</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.062757102636868e-06</v>
+        <v>3.117432367570691e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.27083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>876607.7570856778</v>
+        <v>955925.0734153442</v>
       </c>
     </row>
     <row r="3">
@@ -4072,28 +4072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>471.7611307698874</v>
+        <v>519.8900133489059</v>
       </c>
       <c r="AB3" t="n">
-        <v>645.4843917515685</v>
+        <v>711.3364521926262</v>
       </c>
       <c r="AC3" t="n">
-        <v>583.8802673458317</v>
+        <v>643.4474995623423</v>
       </c>
       <c r="AD3" t="n">
-        <v>471761.1307698874</v>
+        <v>519890.0133489059</v>
       </c>
       <c r="AE3" t="n">
-        <v>645484.3917515685</v>
+        <v>711336.4521926262</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.543487124057394e-06</v>
+        <v>3.84395674939129e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.19583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>583880.2673458317</v>
+        <v>643447.4995623423</v>
       </c>
     </row>
   </sheetData>
@@ -4369,28 +4369,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>476.9702498431853</v>
+        <v>537.2701507397225</v>
       </c>
       <c r="AB2" t="n">
-        <v>652.6117382777692</v>
+        <v>735.116722928288</v>
       </c>
       <c r="AC2" t="n">
-        <v>590.3273899228656</v>
+        <v>664.9582146348121</v>
       </c>
       <c r="AD2" t="n">
-        <v>476970.2498431854</v>
+        <v>537270.1507397224</v>
       </c>
       <c r="AE2" t="n">
-        <v>652611.7382777692</v>
+        <v>735116.722928288</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.377901715263632e-06</v>
+        <v>3.758245103189076e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.32291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>590327.3899228656</v>
+        <v>664958.2146348121</v>
       </c>
     </row>
   </sheetData>
@@ -4666,28 +4666,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1693.823118613267</v>
+        <v>1803.816811385848</v>
       </c>
       <c r="AB2" t="n">
-        <v>2317.563517088754</v>
+        <v>2468.061740119446</v>
       </c>
       <c r="AC2" t="n">
-        <v>2096.378507738628</v>
+        <v>2232.513391588854</v>
       </c>
       <c r="AD2" t="n">
-        <v>1693823.118613267</v>
+        <v>1803816.811385848</v>
       </c>
       <c r="AE2" t="n">
-        <v>2317563.517088754</v>
+        <v>2468061.740119447</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.305506944341025e-06</v>
+        <v>1.903280674229589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.86666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2096378.507738628</v>
+        <v>2232513.391588854</v>
       </c>
     </row>
     <row r="3">
@@ -4772,28 +4772,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>686.9034831970762</v>
+        <v>746.137510418138</v>
       </c>
       <c r="AB3" t="n">
-        <v>939.8516497531671</v>
+        <v>1020.898259017873</v>
       </c>
       <c r="AC3" t="n">
-        <v>850.1535273907992</v>
+        <v>923.4651620169119</v>
       </c>
       <c r="AD3" t="n">
-        <v>686903.4831970761</v>
+        <v>746137.510418138</v>
       </c>
       <c r="AE3" t="n">
-        <v>939851.6497531671</v>
+        <v>1020898.259017873</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.188058952424012e-06</v>
+        <v>3.189941146062423e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.23958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>850153.5273907993</v>
+        <v>923465.1620169119</v>
       </c>
     </row>
     <row r="4">
@@ -4878,28 +4878,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>518.0552490226868</v>
+        <v>568.8150935913083</v>
       </c>
       <c r="AB4" t="n">
-        <v>708.8260466974039</v>
+        <v>778.2779054024875</v>
       </c>
       <c r="AC4" t="n">
-        <v>641.1766836442077</v>
+        <v>704.0001544307739</v>
       </c>
       <c r="AD4" t="n">
-        <v>518055.2490226868</v>
+        <v>568815.0935913082</v>
       </c>
       <c r="AE4" t="n">
-        <v>708826.0466974039</v>
+        <v>778277.9054024875</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.501984840403369e-06</v>
+        <v>3.647609393880948e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.45416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>641176.6836442078</v>
+        <v>704000.1544307739</v>
       </c>
     </row>
     <row r="5">
@@ -4984,28 +4984,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>511.1410873124913</v>
+        <v>561.9009318811128</v>
       </c>
       <c r="AB5" t="n">
-        <v>699.3657856142278</v>
+        <v>768.8176443193115</v>
       </c>
       <c r="AC5" t="n">
-        <v>632.6192966012501</v>
+        <v>695.4427673878165</v>
       </c>
       <c r="AD5" t="n">
-        <v>511141.0873124913</v>
+        <v>561900.9318811127</v>
       </c>
       <c r="AE5" t="n">
-        <v>699365.7856142278</v>
+        <v>768817.6443193115</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.521876285425406e-06</v>
+        <v>3.676608858845152e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.35416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>632619.2966012501</v>
+        <v>695442.7673878164</v>
       </c>
     </row>
   </sheetData>
@@ -5281,28 +5281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>493.7332123264421</v>
+        <v>553.1308568287719</v>
       </c>
       <c r="AB2" t="n">
-        <v>675.5475630770724</v>
+        <v>756.8180407242941</v>
       </c>
       <c r="AC2" t="n">
-        <v>611.0742517939555</v>
+        <v>684.5883891183581</v>
       </c>
       <c r="AD2" t="n">
-        <v>493733.2123264421</v>
+        <v>553130.8568287719</v>
       </c>
       <c r="AE2" t="n">
-        <v>675547.5630770724</v>
+        <v>756818.040724294</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.27312939171184e-06</v>
+        <v>3.642087238338211e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.40416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>611074.2517939555</v>
+        <v>684588.3891183581</v>
       </c>
     </row>
   </sheetData>
@@ -5578,28 +5578,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1043.672108121401</v>
+        <v>1117.771113027708</v>
       </c>
       <c r="AB2" t="n">
-        <v>1427.998221895519</v>
+        <v>1529.383749425709</v>
       </c>
       <c r="AC2" t="n">
-        <v>1291.712075805902</v>
+        <v>1383.421510884093</v>
       </c>
       <c r="AD2" t="n">
-        <v>1043672.108121401</v>
+        <v>1117771.113027708</v>
       </c>
       <c r="AE2" t="n">
-        <v>1427998.221895519</v>
+        <v>1529383.749425709</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.697169264323959e-06</v>
+        <v>2.520030236508661e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.08541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1291712.075805902</v>
+        <v>1383421.510884093</v>
       </c>
     </row>
     <row r="3">
@@ -5684,28 +5684,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>496.6820874100552</v>
+        <v>554.2292363092939</v>
       </c>
       <c r="AB3" t="n">
-        <v>679.5823440616589</v>
+        <v>758.3208919866269</v>
       </c>
       <c r="AC3" t="n">
-        <v>614.7239589442237</v>
+        <v>685.947810365479</v>
       </c>
       <c r="AD3" t="n">
-        <v>496682.0874100552</v>
+        <v>554229.2363092939</v>
       </c>
       <c r="AE3" t="n">
-        <v>679582.3440616588</v>
+        <v>758320.8919866269</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.507270214129532e-06</v>
+        <v>3.72290312081559e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.92083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>614723.9589442237</v>
+        <v>685947.810365479</v>
       </c>
     </row>
     <row r="4">
@@ -5790,28 +5790,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>483.6877571733104</v>
+        <v>541.2349060725491</v>
       </c>
       <c r="AB4" t="n">
-        <v>661.802928162354</v>
+        <v>740.5414760873219</v>
       </c>
       <c r="AC4" t="n">
-        <v>598.6413855447815</v>
+        <v>669.8652369660368</v>
       </c>
       <c r="AD4" t="n">
-        <v>483687.7571733104</v>
+        <v>541234.9060725491</v>
       </c>
       <c r="AE4" t="n">
-        <v>661802.9281623539</v>
+        <v>740541.476087322</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.544121255416273e-06</v>
+        <v>3.777621138777345e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.73333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>598641.3855447816</v>
+        <v>669865.2369660368</v>
       </c>
     </row>
   </sheetData>
@@ -6087,28 +6087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1330.615025440115</v>
+        <v>1422.388000577636</v>
       </c>
       <c r="AB2" t="n">
-        <v>1820.606180399066</v>
+        <v>1946.174013720141</v>
       </c>
       <c r="AC2" t="n">
-        <v>1646.850081778601</v>
+        <v>1760.433897323074</v>
       </c>
       <c r="AD2" t="n">
-        <v>1330615.025440115</v>
+        <v>1422388.000577636</v>
       </c>
       <c r="AE2" t="n">
-        <v>1820606.180399066</v>
+        <v>1946174.013720141</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.490581198133287e-06</v>
+        <v>2.191813912345644e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1646850.081778602</v>
+        <v>1760433.897323074</v>
       </c>
     </row>
     <row r="3">
@@ -6193,28 +6193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>589.5065700590266</v>
+        <v>648.0161129105535</v>
       </c>
       <c r="AB3" t="n">
-        <v>806.5888963491363</v>
+        <v>886.6442341374499</v>
       </c>
       <c r="AC3" t="n">
-        <v>729.6091841361999</v>
+        <v>802.024152844369</v>
       </c>
       <c r="AD3" t="n">
-        <v>589506.5700590266</v>
+        <v>648016.1129105535</v>
       </c>
       <c r="AE3" t="n">
-        <v>806588.8963491364</v>
+        <v>886644.2341374499</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.340992507207286e-06</v>
+        <v>3.442294825950854e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.55833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>729609.1841361999</v>
+        <v>802024.1528443691</v>
       </c>
     </row>
     <row r="4">
@@ -6299,28 +6299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>497.430555168893</v>
+        <v>547.6669327533449</v>
       </c>
       <c r="AB4" t="n">
-        <v>680.6064306693678</v>
+        <v>749.3420587529772</v>
       </c>
       <c r="AC4" t="n">
-        <v>615.6503081634075</v>
+        <v>677.8259043737771</v>
       </c>
       <c r="AD4" t="n">
-        <v>497430.555168893</v>
+        <v>547666.9327533449</v>
       </c>
       <c r="AE4" t="n">
-        <v>680606.4306693678</v>
+        <v>749342.0587529772</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.531123878351025e-06</v>
+        <v>3.721872070698132e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.53958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>615650.3081634075</v>
+        <v>677825.9043737771</v>
       </c>
     </row>
     <row r="5">
@@ -6405,28 +6405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>498.1910710017252</v>
+        <v>548.4274485861771</v>
       </c>
       <c r="AB5" t="n">
-        <v>681.6470019834394</v>
+        <v>750.3826300670487</v>
       </c>
       <c r="AC5" t="n">
-        <v>616.5915688117151</v>
+        <v>678.7671650220846</v>
       </c>
       <c r="AD5" t="n">
-        <v>498191.0710017252</v>
+        <v>548427.4485861771</v>
       </c>
       <c r="AE5" t="n">
-        <v>681647.0019834394</v>
+        <v>750382.6300670487</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.535846692858603e-06</v>
+        <v>3.728816697771181e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.51666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>616591.5688117151</v>
+        <v>678767.1650220846</v>
       </c>
     </row>
   </sheetData>
@@ -6702,28 +6702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2184.630185348595</v>
+        <v>2304.692777410634</v>
       </c>
       <c r="AB2" t="n">
-        <v>2989.10739867563</v>
+        <v>3153.382333922826</v>
       </c>
       <c r="AC2" t="n">
-        <v>2703.83118378461</v>
+        <v>2852.427949773015</v>
       </c>
       <c r="AD2" t="n">
-        <v>2184630.185348595</v>
+        <v>2304692.777410634</v>
       </c>
       <c r="AE2" t="n">
-        <v>2989107.398675629</v>
+        <v>3153382.333922826</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.135230885616384e-06</v>
+        <v>1.642420834027247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.98541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2703831.18378461</v>
+        <v>2852427.949773015</v>
       </c>
     </row>
     <row r="3">
@@ -6808,28 +6808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>781.9155195083297</v>
+        <v>850.4861403203915</v>
       </c>
       <c r="AB3" t="n">
-        <v>1069.851309469435</v>
+        <v>1163.672657986786</v>
       </c>
       <c r="AC3" t="n">
-        <v>967.7462020394153</v>
+        <v>1052.61337273336</v>
       </c>
       <c r="AD3" t="n">
-        <v>781915.5195083297</v>
+        <v>850486.1403203915</v>
       </c>
       <c r="AE3" t="n">
-        <v>1069851.309469435</v>
+        <v>1163672.657986786</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.047091859930788e-06</v>
+        <v>2.96167622156649e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.96458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>967746.2020394152</v>
+        <v>1052613.37273336</v>
       </c>
     </row>
     <row r="4">
@@ -6914,28 +6914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>579.4736752683772</v>
+        <v>639.4623008721099</v>
       </c>
       <c r="AB4" t="n">
-        <v>792.8614470764904</v>
+        <v>874.9405311388974</v>
       </c>
       <c r="AC4" t="n">
-        <v>717.1918633555391</v>
+        <v>791.4374348337484</v>
       </c>
       <c r="AD4" t="n">
-        <v>579473.6752683772</v>
+        <v>639462.3008721099</v>
       </c>
       <c r="AE4" t="n">
-        <v>792861.4470764904</v>
+        <v>874940.5311388974</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.391925593968408e-06</v>
+        <v>3.460572187342901e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.80833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>717191.8633555392</v>
+        <v>791437.4348337484</v>
       </c>
     </row>
     <row r="5">
@@ -7020,28 +7020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>526.3546585630872</v>
+        <v>577.7613784670418</v>
       </c>
       <c r="AB5" t="n">
-        <v>720.1816649746875</v>
+        <v>790.5186070516996</v>
       </c>
       <c r="AC5" t="n">
-        <v>651.4485376508177</v>
+        <v>715.0726206945178</v>
       </c>
       <c r="AD5" t="n">
-        <v>526354.6585630872</v>
+        <v>577761.3784670418</v>
       </c>
       <c r="AE5" t="n">
-        <v>720181.6649746875</v>
+        <v>790518.6070516997</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.500743062278786e-06</v>
+        <v>3.618006308739295e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>651448.5376508177</v>
+        <v>715072.6206945179</v>
       </c>
     </row>
     <row r="6">
@@ -7126,28 +7126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>528.5140803188563</v>
+        <v>579.9208002228108</v>
       </c>
       <c r="AB6" t="n">
-        <v>723.136281087895</v>
+        <v>793.4732231649069</v>
       </c>
       <c r="AC6" t="n">
-        <v>654.1211693490103</v>
+        <v>717.7452523927107</v>
       </c>
       <c r="AD6" t="n">
-        <v>528514.0803188563</v>
+        <v>579920.8002228108</v>
       </c>
       <c r="AE6" t="n">
-        <v>723136.281087895</v>
+        <v>793473.223164907</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.500596011645934e-06</v>
+        <v>3.617793559926598e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.25208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>654121.1693490103</v>
+        <v>717745.2523927107</v>
       </c>
     </row>
   </sheetData>
@@ -7423,28 +7423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>810.805827898581</v>
+        <v>883.4975187967792</v>
       </c>
       <c r="AB2" t="n">
-        <v>1109.38030395943</v>
+        <v>1208.840282377413</v>
       </c>
       <c r="AC2" t="n">
-        <v>1003.502604774577</v>
+        <v>1093.470262445305</v>
       </c>
       <c r="AD2" t="n">
-        <v>810805.827898581</v>
+        <v>883497.5187967792</v>
       </c>
       <c r="AE2" t="n">
-        <v>1109380.30395943</v>
+        <v>1208840.282377413</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.931148484477473e-06</v>
+        <v>2.899975966556466e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.1625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1003502.604774577</v>
+        <v>1093470.262445305</v>
       </c>
     </row>
     <row r="3">
@@ -7529,28 +7529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>477.4075836746956</v>
+        <v>525.9825285824402</v>
       </c>
       <c r="AB3" t="n">
-        <v>653.2101177198485</v>
+        <v>719.6725003179504</v>
       </c>
       <c r="AC3" t="n">
-        <v>590.8686608708236</v>
+        <v>650.9879669543025</v>
       </c>
       <c r="AD3" t="n">
-        <v>477407.5836746956</v>
+        <v>525982.5285824402</v>
       </c>
       <c r="AE3" t="n">
-        <v>653210.1177198485</v>
+        <v>719672.5003179504</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.54728968889145e-06</v>
+        <v>3.825225733297812e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.01041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>590868.6608708237</v>
+        <v>650987.9669543025</v>
       </c>
     </row>
     <row r="4">
@@ -7635,28 +7635,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>479.8491918651173</v>
+        <v>528.424136772862</v>
       </c>
       <c r="AB4" t="n">
-        <v>656.5508337621345</v>
+        <v>723.0132163602364</v>
       </c>
       <c r="AC4" t="n">
-        <v>593.8905436627583</v>
+        <v>654.009849746237</v>
       </c>
       <c r="AD4" t="n">
-        <v>479849.1918651173</v>
+        <v>528424.1367728619</v>
       </c>
       <c r="AE4" t="n">
-        <v>656550.8337621345</v>
+        <v>723013.2163602364</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.54728968889145e-06</v>
+        <v>3.825225733297812e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.01041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>593890.5436627583</v>
+        <v>654009.849746237</v>
       </c>
     </row>
   </sheetData>
@@ -7932,28 +7932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>520.8603434868215</v>
+        <v>583.6405385688934</v>
       </c>
       <c r="AB2" t="n">
-        <v>712.6641006952668</v>
+        <v>798.5627332732915</v>
       </c>
       <c r="AC2" t="n">
-        <v>644.6484391552572</v>
+        <v>722.349026799523</v>
       </c>
       <c r="AD2" t="n">
-        <v>520860.3434868216</v>
+        <v>583640.5385688933</v>
       </c>
       <c r="AE2" t="n">
-        <v>712664.1006952669</v>
+        <v>798562.7332732915</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.37353852267081e-06</v>
+        <v>3.640406992491892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.54583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>644648.4391552572</v>
+        <v>722349.026799523</v>
       </c>
     </row>
     <row r="3">
@@ -8038,28 +8038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>464.0987923734581</v>
+        <v>519.1061363180212</v>
       </c>
       <c r="AB3" t="n">
-        <v>635.0004423190616</v>
+        <v>710.2639170567559</v>
       </c>
       <c r="AC3" t="n">
-        <v>574.3968913328478</v>
+        <v>642.4773256745268</v>
       </c>
       <c r="AD3" t="n">
-        <v>464098.7923734581</v>
+        <v>519106.1363180212</v>
       </c>
       <c r="AE3" t="n">
-        <v>635000.4423190616</v>
+        <v>710263.9170567559</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.516053577442639e-06</v>
+        <v>3.858988994414885e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.72083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>574396.8913328478</v>
+        <v>642477.3256745269</v>
       </c>
     </row>
   </sheetData>
@@ -13748,28 +13748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>467.2161900739891</v>
+        <v>528.4769299401487</v>
       </c>
       <c r="AB2" t="n">
-        <v>639.2658033828081</v>
+        <v>723.0854503007884</v>
       </c>
       <c r="AC2" t="n">
-        <v>578.2551723231422</v>
+        <v>654.0751897808838</v>
       </c>
       <c r="AD2" t="n">
-        <v>467216.1900739891</v>
+        <v>528476.9299401487</v>
       </c>
       <c r="AE2" t="n">
-        <v>639265.8033828081</v>
+        <v>723085.4503007884</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.442802316920414e-06</v>
+        <v>3.816830435019478e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.62083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>578255.1723231422</v>
+        <v>654075.1897808837</v>
       </c>
     </row>
     <row r="3">
@@ -13854,28 +13854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>470.6374253732138</v>
+        <v>531.8981652393735</v>
       </c>
       <c r="AB3" t="n">
-        <v>643.9468884534564</v>
+        <v>727.7665353714367</v>
       </c>
       <c r="AC3" t="n">
-        <v>582.4895012045921</v>
+        <v>658.3095186623335</v>
       </c>
       <c r="AD3" t="n">
-        <v>470637.4253732138</v>
+        <v>531898.1652393735</v>
       </c>
       <c r="AE3" t="n">
-        <v>643946.8884534563</v>
+        <v>727766.5353714367</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.442288042748431e-06</v>
+        <v>3.81602689177e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.62291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>582489.5012045921</v>
+        <v>658309.5186623335</v>
       </c>
     </row>
   </sheetData>
@@ -14151,28 +14151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>530.6119864936572</v>
+        <v>596.152540580119</v>
       </c>
       <c r="AB2" t="n">
-        <v>726.006728869346</v>
+        <v>815.6822064156213</v>
       </c>
       <c r="AC2" t="n">
-        <v>656.7176656228986</v>
+        <v>737.8346414524806</v>
       </c>
       <c r="AD2" t="n">
-        <v>530611.9864936572</v>
+        <v>596152.540580119</v>
       </c>
       <c r="AE2" t="n">
-        <v>726006.7288693461</v>
+        <v>815682.2064156213</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.096025725471247e-06</v>
+        <v>3.415843099154933e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.2875</v>
       </c>
       <c r="AH2" t="n">
-        <v>656717.6656228986</v>
+        <v>737834.6414524806</v>
       </c>
     </row>
   </sheetData>
@@ -14448,28 +14448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1177.09757479368</v>
+        <v>1259.984279839872</v>
       </c>
       <c r="AB2" t="n">
-        <v>1610.556831712687</v>
+        <v>1723.966078260235</v>
       </c>
       <c r="AC2" t="n">
-        <v>1456.847548124737</v>
+        <v>1559.433175352665</v>
       </c>
       <c r="AD2" t="n">
-        <v>1177097.57479368</v>
+        <v>1259984.279839872</v>
       </c>
       <c r="AE2" t="n">
-        <v>1610556.831712686</v>
+        <v>1723966.078260235</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.592397886275737e-06</v>
+        <v>2.352578070737702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.12916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1456847.548124737</v>
+        <v>1559433.175352665</v>
       </c>
     </row>
     <row r="3">
@@ -14554,28 +14554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>543.8935435457417</v>
+        <v>593.67680688962</v>
       </c>
       <c r="AB3" t="n">
-        <v>744.1791411689518</v>
+        <v>812.2947983586187</v>
       </c>
       <c r="AC3" t="n">
-        <v>673.1557283977705</v>
+        <v>734.7705228661812</v>
       </c>
       <c r="AD3" t="n">
-        <v>543893.5435457417</v>
+        <v>593676.80688962</v>
       </c>
       <c r="AE3" t="n">
-        <v>744179.1411689518</v>
+        <v>812294.7983586186</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.428372155880151e-06</v>
+        <v>3.587630409931629e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.2</v>
       </c>
       <c r="AH3" t="n">
-        <v>673155.7283977706</v>
+        <v>734770.5228661812</v>
       </c>
     </row>
     <row r="4">
@@ -14660,28 +14660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>489.6357015547521</v>
+        <v>547.6307301747288</v>
       </c>
       <c r="AB4" t="n">
-        <v>669.9411680698288</v>
+        <v>749.2925247877697</v>
       </c>
       <c r="AC4" t="n">
-        <v>606.0029232575785</v>
+        <v>677.7810978606876</v>
       </c>
       <c r="AD4" t="n">
-        <v>489635.7015547521</v>
+        <v>547630.7301747288</v>
       </c>
       <c r="AE4" t="n">
-        <v>669941.1680698288</v>
+        <v>749292.5247877697</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.539927713668335e-06</v>
+        <v>3.752440449673133e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.62083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>606002.9232575785</v>
+        <v>677781.0978606876</v>
       </c>
     </row>
   </sheetData>
@@ -14957,28 +14957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1926.270677229848</v>
+        <v>2036.976861958442</v>
       </c>
       <c r="AB2" t="n">
-        <v>2635.608521650494</v>
+        <v>2787.081607608331</v>
       </c>
       <c r="AC2" t="n">
-        <v>2384.069743443963</v>
+        <v>2521.086450671795</v>
       </c>
       <c r="AD2" t="n">
-        <v>1926270.677229848</v>
+        <v>2036976.861958442</v>
       </c>
       <c r="AE2" t="n">
-        <v>2635608.521650494</v>
+        <v>2787081.60760833</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.218365592117915e-06</v>
+        <v>1.76927276258189e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.35208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2384069.743443964</v>
+        <v>2521086.450671795</v>
       </c>
     </row>
     <row r="3">
@@ -15063,28 +15063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>736.1053001218467</v>
+        <v>804.2518219929279</v>
       </c>
       <c r="AB3" t="n">
-        <v>1007.171746300605</v>
+        <v>1100.412823936982</v>
       </c>
       <c r="AC3" t="n">
-        <v>911.0486884080985</v>
+        <v>995.3909684595338</v>
       </c>
       <c r="AD3" t="n">
-        <v>736105.3001218466</v>
+        <v>804251.8219929279</v>
       </c>
       <c r="AE3" t="n">
-        <v>1007171.746300605</v>
+        <v>1100412.823936982</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.111566800213122e-06</v>
+        <v>3.066351881699976e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.62916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>911048.6884080985</v>
+        <v>995390.9684595339</v>
       </c>
     </row>
     <row r="4">
@@ -15169,28 +15169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>543.9523367752948</v>
+        <v>603.5698758056697</v>
       </c>
       <c r="AB4" t="n">
-        <v>744.2595846594004</v>
+        <v>825.8309317009553</v>
       </c>
       <c r="AC4" t="n">
-        <v>673.2284944743941</v>
+        <v>747.0147866404078</v>
       </c>
       <c r="AD4" t="n">
-        <v>543952.3367752949</v>
+        <v>603569.8758056697</v>
       </c>
       <c r="AE4" t="n">
-        <v>744259.5846594004</v>
+        <v>825830.9317009553</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.455858500943048e-06</v>
+        <v>3.566321621838122e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.57708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>673228.4944743941</v>
+        <v>747014.7866404078</v>
       </c>
     </row>
     <row r="5">
@@ -15275,28 +15275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>519.6582986857765</v>
+        <v>570.7469443839956</v>
       </c>
       <c r="AB5" t="n">
-        <v>711.0194099680032</v>
+        <v>780.9211488842845</v>
       </c>
       <c r="AC5" t="n">
-        <v>643.1607154026657</v>
+        <v>706.3911304644839</v>
       </c>
       <c r="AD5" t="n">
-        <v>519658.2986857764</v>
+        <v>570746.9443839956</v>
       </c>
       <c r="AE5" t="n">
-        <v>711019.4099680032</v>
+        <v>780921.1488842845</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.509830154287446e-06</v>
+        <v>3.644697584547117e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.30833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>643160.7154026657</v>
+        <v>706391.1304644839</v>
       </c>
     </row>
   </sheetData>
@@ -15572,28 +15572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>611.5231952340076</v>
+        <v>689.7102475608593</v>
       </c>
       <c r="AB2" t="n">
-        <v>836.7130142184968</v>
+        <v>943.6919885813996</v>
       </c>
       <c r="AC2" t="n">
-        <v>756.8582984755739</v>
+        <v>853.6273496712146</v>
       </c>
       <c r="AD2" t="n">
-        <v>611523.1952340077</v>
+        <v>689710.2475608593</v>
       </c>
       <c r="AE2" t="n">
-        <v>836713.0142184969</v>
+        <v>943691.9885813997</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.78005743612903e-06</v>
+        <v>2.967249691910702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.29791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>756858.2984755739</v>
+        <v>853627.3496712146</v>
       </c>
     </row>
   </sheetData>
@@ -15869,28 +15869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>612.1435766969659</v>
+        <v>675.5133123029005</v>
       </c>
       <c r="AB2" t="n">
-        <v>837.5618475054148</v>
+        <v>924.2671154368809</v>
       </c>
       <c r="AC2" t="n">
-        <v>757.6261203049332</v>
+        <v>836.0563591566279</v>
       </c>
       <c r="AD2" t="n">
-        <v>612143.5766969658</v>
+        <v>675513.3123029006</v>
       </c>
       <c r="AE2" t="n">
-        <v>837561.8475054147</v>
+        <v>924267.1154368808</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.208629046536692e-06</v>
+        <v>3.361327170851391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.40208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>757626.1203049333</v>
+        <v>836056.3591566279</v>
       </c>
     </row>
     <row r="3">
@@ -15975,28 +15975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>467.185956943632</v>
+        <v>522.6131515737509</v>
       </c>
       <c r="AB3" t="n">
-        <v>639.2244370800619</v>
+        <v>715.0623700482388</v>
       </c>
       <c r="AC3" t="n">
-        <v>578.2177539622722</v>
+        <v>646.8178210471737</v>
       </c>
       <c r="AD3" t="n">
-        <v>467185.956943632</v>
+        <v>522613.1515737508</v>
       </c>
       <c r="AE3" t="n">
-        <v>639224.4370800619</v>
+        <v>715062.3700482388</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.534575336879556e-06</v>
+        <v>3.857386988449865e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.42291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>578217.7539622722</v>
+        <v>646817.8210471737</v>
       </c>
     </row>
   </sheetData>
@@ -16272,28 +16272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>922.0113715015435</v>
+        <v>995.4221105328037</v>
       </c>
       <c r="AB2" t="n">
-        <v>1261.536634759336</v>
+        <v>1361.980446555139</v>
       </c>
       <c r="AC2" t="n">
-        <v>1141.137348915691</v>
+        <v>1231.994944287479</v>
       </c>
       <c r="AD2" t="n">
-        <v>922011.3715015436</v>
+        <v>995422.1105328037</v>
       </c>
       <c r="AE2" t="n">
-        <v>1261536.634759336</v>
+        <v>1361980.446555139</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.809789944027746e-06</v>
+        <v>2.701854761371327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.09791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1141137.348915691</v>
+        <v>1231994.944287479</v>
       </c>
     </row>
     <row r="3">
@@ -16378,28 +16378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>474.9772216001312</v>
+        <v>532.0554288167779</v>
       </c>
       <c r="AB3" t="n">
-        <v>649.8847891094219</v>
+        <v>727.9817103360208</v>
       </c>
       <c r="AC3" t="n">
-        <v>587.860696955848</v>
+        <v>658.5041576302978</v>
       </c>
       <c r="AD3" t="n">
-        <v>474977.2216001312</v>
+        <v>532055.4288167779</v>
       </c>
       <c r="AE3" t="n">
-        <v>649884.7891094219</v>
+        <v>727981.7103360208</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.549365297750839e-06</v>
+        <v>3.805974715979156e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.84791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>587860.696955848</v>
+        <v>658504.1576302977</v>
       </c>
     </row>
     <row r="4">
@@ -16484,28 +16484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>477.1014506145222</v>
+        <v>534.1796578311688</v>
       </c>
       <c r="AB4" t="n">
-        <v>652.7912529612817</v>
+        <v>730.8881741878805</v>
       </c>
       <c r="AC4" t="n">
-        <v>590.4897719769341</v>
+        <v>661.1332326513837</v>
       </c>
       <c r="AD4" t="n">
-        <v>477101.4506145222</v>
+        <v>534179.6578311688</v>
       </c>
       <c r="AE4" t="n">
-        <v>652791.2529612817</v>
+        <v>730888.1741878805</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.547793071233571e-06</v>
+        <v>3.803627522198102e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.85625</v>
       </c>
       <c r="AH4" t="n">
-        <v>590489.771976934</v>
+        <v>661133.2326513836</v>
       </c>
     </row>
   </sheetData>
